--- a/02 - Documentos de Diseño/02 - DEMO Progreso.xlsx
+++ b/02 - Documentos de Diseño/02 - DEMO Progreso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago\Desktop\UruVania\02 - Documentos de Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85EAFB8-1E47-48E4-AA8C-7A51CDAD98AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889989C5-4B14-4325-AB1E-9CB73324CF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,8 +1014,8 @@
       <c r="B35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="8">
-        <v>0</v>
+      <c r="C35" s="9">
+        <v>0.7</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>79</v>
@@ -1025,8 +1025,8 @@
       <c r="B36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="8">
-        <v>0</v>
+      <c r="C36" s="9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
